--- a/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.08676356778483646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.490451931802933</v>
+        <v>1.490451931802939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7281450004908953</v>
@@ -649,7 +649,7 @@
         <v>0.1629387614396961</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04868111441054689</v>
+        <v>0.04868111441054707</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4076380450110639</v>
+        <v>-0.432030479646651</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5023049465419117</v>
+        <v>-0.5330601094423489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8159172450108576</v>
+        <v>-0.8079430210366478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.278038707196634</v>
+        <v>-6.778620534489043</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7584305300134422</v>
+        <v>-0.8124610077209844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6284263925142284</v>
-      </c>
-      <c r="I5" s="6" t="inlineStr"/>
+        <v>-0.6521356940316821</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1983593408239637</v>
+        <v>-0.1831547955745614</v>
       </c>
     </row>
     <row r="6">
@@ -690,24 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.168929012178361</v>
+        <v>1.151181039341136</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.109347703175453</v>
+        <v>1.045493562787347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8622910664031933</v>
+        <v>0.923605579119514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.897646998926085</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>10.36853195519874</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>9.386155227305167</v>
+      </c>
       <c r="H6" s="6" t="n">
-        <v>6.235478823596871</v>
-      </c>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>5.67713868200967</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.941280729411375</v>
+      </c>
       <c r="J6" s="6" t="n">
-        <v>0.3643144063555525</v>
+        <v>0.4167644786249569</v>
       </c>
     </row>
     <row r="7">
@@ -754,28 +760,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7738915729666711</v>
+        <v>-0.716173992196258</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.005409581784807807</v>
+        <v>0.004084854149482575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.247498557376065</v>
+        <v>-1.266863735424246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.66280761988432</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-0.8944075147749443</v>
-      </c>
+        <v>-6.066171994603285</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.364347909199037</v>
+        <v>-0.2158867047771189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8177158239353819</v>
+        <v>-0.8119925601250669</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5101682216980734</v>
+        <v>-0.4814739007039065</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +790,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8835951692477134</v>
+        <v>0.8020403195661565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.230527309489731</v>
+        <v>1.308133285906381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2211423496864554</v>
+        <v>0.2706371307002721</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.167954947857658</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>7.812426151589754</v>
-      </c>
+        <v>1.201053962661146</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>14.13942600894543</v>
+        <v>18.45607786453137</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5009614115522925</v>
+        <v>0.628297344515606</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1624733141538079</v>
+        <v>0.1714647156340299</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +833,7 @@
         <v>2.186485365145062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.839183160487899</v>
+        <v>-2.83918316048789</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1492967368157092</v>
@@ -843,7 +845,7 @@
         <v>1.846899750542857</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2118527527182506</v>
+        <v>-0.2118527527182501</v>
       </c>
     </row>
     <row r="11">
@@ -854,28 +856,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.605254218926094</v>
+        <v>-1.628973491941716</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.848056526679108</v>
+        <v>-4.093322258952147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.112937212570357</v>
+        <v>0.125713538895423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.56884873174419</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-18.9370891257036</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7165102289759036</v>
+        <v>-0.7295959181194495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3211783358186004</v>
+        <v>-0.1825916651277512</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7260762927507008</v>
+        <v>-0.7322439139027792</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +886,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.10622828823632</v>
+        <v>2.194181063352524</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.34789225263554</v>
+        <v>3.265559417272025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.879048875401764</v>
+        <v>4.738826021577712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.797490402911571</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>5.915819626450143</v>
-      </c>
+        <v>5.075560404517407</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.818114958946161</v>
+        <v>1.922644975512111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>12.0931423454169</v>
+        <v>14.00334683734645</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8610927810247898</v>
+        <v>0.791151517540302</v>
       </c>
     </row>
     <row r="13">
@@ -954,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3177399080303786</v>
+        <v>-0.3576163865595522</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2478702949817675</v>
+        <v>-0.2727792980927293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.542174786700471</v>
+        <v>-0.6227023487762156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.774607923220421</v>
+        <v>-2.243914888322511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4458216131284741</v>
+        <v>-0.4462830102525703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2644375181964206</v>
+        <v>-0.2833069458092354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4445718353283821</v>
+        <v>-0.4815792574769052</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1504498176195095</v>
+        <v>-0.1356299963813374</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7224546632735103</v>
+        <v>0.7335460444323803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9730144795033744</v>
+        <v>0.9285988899359061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7098226484349158</v>
+        <v>0.6743085651492191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.871291327154998</v>
+        <v>5.017878572490055</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.285466370977008</v>
+        <v>2.426197308645985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.01153143054559</v>
+        <v>1.785417664041786</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.311105606860345</v>
+        <v>1.176746887594567</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3777478159850381</v>
+        <v>0.3981553350798908</v>
       </c>
     </row>
     <row r="16">
